--- a/biology/Zoologie/Heterophrynus/Heterophrynus.xlsx
+++ b/biology/Zoologie/Heterophrynus/Heterophrynus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heterophrynus est un genre d'amblypyges de la famille des Phrynidae, le seul de la sous-famille des Heterophryninae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Amérique du Sud[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Amérique du Sud.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Whip spiders of the World (version 1.0)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Whip spiders of the World (version 1.0) :
 Heterophrynus alces Pocock, 1902
 Heterophrynus armiger Pocock, 1902
 Heterophrynus batesii (Butler, 1873)
@@ -565,7 +581,7 @@
 Heterophrynus silviae Giupponi &amp; Kury, 2013
 Heterophrynus yarigui Alvarez Garcia, de Armas &amp; Diaz Perez, 2015
 Heterophrynus origamii Chirivi-Joya, Moreno-González &amp; Fagua, 2020
-Heterophrynus nicefori [2] a été placée en synonymie avec Heterophrynus batesii par Giupponi et Kury en 2013[3].
+Heterophrynus nicefori  a été placée en synonymie avec Heterophrynus batesii par Giupponi et Kury en 2013.
 </t>
         </is>
       </c>
@@ -594,7 +610,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Pocock, 1894 : « Contributions to our knowledge of the arthropod fauna of the West Indies. III. Supplement on the Pedipalpi of the West Indies. » Zoological Journal of the Linnean Society of London, vol. 24, p. 527–542 (texte intégral).
 Pocock, 1902 : « Arachnida: Scorpiones, Pedipalpi, and Solifugae. » Biologia Centrali-Americana, vol. 3, p. 1–71 (texte intégral).</t>
